--- a/hồ sơ_đợt 1/Trúng tuyển đợt 1-TT.CNTT.xlsx
+++ b/hồ sơ_đợt 1/Trúng tuyển đợt 1-TT.CNTT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Ngô Thị Cảnh</t>
   </si>
@@ -60,36 +60,9 @@
     <t>1988</t>
   </si>
   <si>
-    <t>ntcanh.229@gmail.com</t>
-  </si>
-  <si>
-    <t>0974.376.660</t>
-  </si>
-  <si>
-    <t>ndlinh0893@gmail.com</t>
-  </si>
-  <si>
     <t>1996</t>
   </si>
   <si>
-    <t>phamthugiang1706966@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anhlinhptit@gmail.com </t>
-  </si>
-  <si>
-    <t>nguyendinhthang0309@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tranquocphuong2010@gmail.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0981 098 538 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  nghiatt1119@gmail.com </t>
-  </si>
-  <si>
     <t>Chuyên viên Quản trị Hạ tầng CNTT</t>
   </si>
   <si>
@@ -105,16 +78,13 @@
     <t>NS</t>
   </si>
   <si>
-    <t>SĐT</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Thời gian có thể làm</t>
-  </si>
-  <si>
-    <t>Lương khởi điểm</t>
+    <t>Hệ số lương đề xuất</t>
+  </si>
+  <si>
+    <t>Thười gian thử việc</t>
+  </si>
+  <si>
+    <t>Phạm Đình Lộc</t>
   </si>
 </sst>
 </file>
@@ -220,22 +190,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -523,67 +487,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="10" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8">
-        <v>9636.0963699999993</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -593,16 +544,10 @@
       <c r="C3" s="2">
         <v>1993</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,18 +555,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
-        <v>901784108</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -631,16 +570,10 @@
       <c r="C5" s="2">
         <v>1989</v>
       </c>
-      <c r="D5" s="2">
-        <v>372553817</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -650,37 +583,25 @@
       <c r="C6" s="3">
         <v>1994</v>
       </c>
-      <c r="D6" s="2">
-        <v>366167337</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>1990</v>
       </c>
-      <c r="D7" s="2">
-        <v>967467622</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -690,20 +611,22 @@
       <c r="C8" s="2">
         <v>1990</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="11"/>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1984</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>